--- a/data/excelsheets/Agedifferencesbetweenpartners.xlsx
+++ b/data/excelsheets/Agedifferencesbetweenpartners.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Unmarried age difference</t>
   </si>
@@ -178,6 +178,21 @@
   </si>
   <si>
     <t>http://www3.norc.org/GSS+Website</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>];</t>
+  </si>
+  <si>
+    <t>]=</t>
+  </si>
+  <si>
+    <t>FemaleAgeDistribution[</t>
   </si>
 </sst>
 </file>
@@ -531,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:AB50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:Z37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +751,7 @@
         <v>25</v>
       </c>
       <c r="B9">
-        <f t="shared" ref="B9:B20" si="1">B8+5</f>
+        <f t="shared" ref="B9:B19" si="1">B8+5</f>
         <v>30</v>
       </c>
       <c r="C9" s="1">
@@ -986,7 +1001,7 @@
         <v>609201</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>65</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>439324.2</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>70</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>252538.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>75</v>
       </c>
@@ -1054,12 +1069,12 @@
         <v>149010.40000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>80</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I20">
         <v>0.18</v>
@@ -1075,12 +1090,12 @@
         <v>78117.299999999988</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K21">
         <v>98993</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -1099,8 +1114,115 @@
       <c r="G23">
         <v>18.8</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>15</v>
+      </c>
+      <c r="O23">
+        <v>18</v>
+      </c>
+      <c r="P23">
+        <v>20</v>
+      </c>
+      <c r="Q23">
+        <v>25</v>
+      </c>
+      <c r="R23">
+        <v>30</v>
+      </c>
+      <c r="S23">
+        <v>35</v>
+      </c>
+      <c r="T23">
+        <v>40</v>
+      </c>
+      <c r="U23">
+        <v>45</v>
+      </c>
+      <c r="V23">
+        <v>50</v>
+      </c>
+      <c r="W23">
+        <v>55</v>
+      </c>
+      <c r="X23">
+        <v>60</v>
+      </c>
+      <c r="Y23">
+        <v>65</v>
+      </c>
+      <c r="Z23">
+        <v>70</v>
+      </c>
+      <c r="AA23">
+        <v>75</v>
+      </c>
+      <c r="AB23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N24" t="str">
+        <f>CONCATENATE(N23, ", ")</f>
+        <v xml:space="preserve">15, </v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" ref="O24:AB24" si="2">CONCATENATE(O23, ", ")</f>
+        <v xml:space="preserve">18, </v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">20, </v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">25, </v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">30, </v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">35, </v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">40, </v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">45, </v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">50, </v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">55, </v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">60, </v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">65, </v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">70, </v>
+      </c>
+      <c r="AA24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">75, </v>
+      </c>
+      <c r="AB24" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">80, </v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>9</v>
       </c>
@@ -1108,34 +1230,471 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" t="s">
+        <v>55</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>54</v>
+      </c>
+      <c r="P27">
+        <v>65.5</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27">
+        <v>29</v>
+      </c>
+      <c r="S27" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27">
+        <v>5.5</v>
+      </c>
+      <c r="U27" t="s">
+        <v>56</v>
+      </c>
+      <c r="V27" t="str">
+        <f>CONCATENATE("FemaleAgeDistribution[","0","]=","[",0,",",65.5,",",29,",",5.5,"];")</f>
+        <v>FemaleAgeDistribution[0]=[0,65.5,29,5.5];</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>58</v>
+      </c>
+      <c r="K28">
+        <f>K27+1</f>
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N28">
+        <v>1.3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>54</v>
+      </c>
+      <c r="P28">
+        <v>63</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>54</v>
+      </c>
+      <c r="R28">
+        <v>25.2</v>
+      </c>
+      <c r="S28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28">
+        <v>10.5</v>
+      </c>
+      <c r="U28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <f t="shared" ref="K29:K33" si="3">K28+1</f>
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="O29" t="s">
+        <v>54</v>
+      </c>
+      <c r="P29">
+        <v>60.8</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>54</v>
+      </c>
+      <c r="R29">
+        <v>19</v>
+      </c>
+      <c r="S29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29">
+        <v>15.8</v>
+      </c>
+      <c r="U29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L30" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30">
+        <v>19.5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>54</v>
+      </c>
+      <c r="P30">
+        <v>44.4</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>54</v>
+      </c>
+      <c r="R30">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T30">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="J31" t="s">
+        <v>58</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="L31" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31">
+        <v>16.8</v>
+      </c>
+      <c r="O31" t="s">
+        <v>54</v>
+      </c>
+      <c r="P31">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>54</v>
+      </c>
+      <c r="R31">
+        <v>16</v>
+      </c>
+      <c r="S31" t="s">
+        <v>54</v>
+      </c>
+      <c r="T31">
+        <v>28</v>
+      </c>
+      <c r="U31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="L32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32">
+        <v>19.7</v>
+      </c>
+      <c r="O32" t="s">
+        <v>54</v>
+      </c>
+      <c r="P32">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S32" t="s">
+        <v>54</v>
+      </c>
+      <c r="T32">
+        <v>29.5</v>
+      </c>
+      <c r="U32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="J33" t="s">
+        <v>58</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="L33" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33">
+        <v>31.4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>54</v>
+      </c>
+      <c r="P33">
+        <v>33.4</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>54</v>
+      </c>
+      <c r="R33">
+        <v>15.9</v>
+      </c>
+      <c r="S33" t="s">
+        <v>54</v>
+      </c>
+      <c r="T33">
+        <v>19.3</v>
+      </c>
+      <c r="U33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>16</v>
+      </c>
+      <c r="J35">
+        <v>0.8</v>
+      </c>
+      <c r="K35">
+        <f>(J35+L35)/2</f>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="L35">
+        <v>0.85</v>
+      </c>
+      <c r="M35">
+        <f>(L35+N35)/2</f>
+        <v>0.86</v>
+      </c>
+      <c r="N35">
+        <v>0.87</v>
+      </c>
+      <c r="O35">
+        <f>(N35+P35)/2</f>
+        <v>0.86</v>
+      </c>
+      <c r="P35">
+        <v>0.85</v>
+      </c>
+      <c r="Q35">
+        <f>(P35+R35)/2</f>
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="R35">
+        <v>0.78</v>
+      </c>
+      <c r="S35">
+        <f>(R35+T35)/2</f>
+        <v>0.69</v>
+      </c>
+      <c r="T35">
+        <v>0.6</v>
+      </c>
+      <c r="U35">
+        <f>(T35+V35)/2</f>
+        <v>0.49</v>
+      </c>
+      <c r="V35">
+        <v>0.38</v>
+      </c>
+      <c r="W35">
+        <f>(V35+X35)/2</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X35">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="36" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>541788.00000000012</v>
+      </c>
+    </row>
+    <row r="37" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J37">
+        <v>372479.25</v>
+      </c>
+      <c r="L37">
+        <v>541788.00000000012</v>
+      </c>
+      <c r="M37">
+        <v>372479.25</v>
+      </c>
+      <c r="N37">
+        <v>1054450.5</v>
+      </c>
+      <c r="O37">
+        <v>1141267.3</v>
+      </c>
+      <c r="P37">
+        <v>1149430.95</v>
+      </c>
+      <c r="Q37">
+        <v>1074097</v>
+      </c>
+      <c r="R37">
+        <v>1127928.75</v>
+      </c>
+      <c r="S37">
+        <v>992706.67499999981</v>
+      </c>
+      <c r="T37">
+        <v>984687.60000000009</v>
+      </c>
+      <c r="U37">
+        <v>790871.1</v>
+      </c>
+      <c r="V37">
+        <v>609201</v>
+      </c>
+      <c r="W37">
+        <v>439324.2</v>
+      </c>
+      <c r="X37">
+        <v>252538.5</v>
+      </c>
+      <c r="Y37">
+        <v>149010.40000000002</v>
+      </c>
+      <c r="Z37">
+        <v>78117.299999999988</v>
+      </c>
+    </row>
+    <row r="38" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J38">
+        <v>1054450.5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J39">
+        <v>1141267.3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J40">
+        <v>1149430.95</v>
+      </c>
+    </row>
+    <row r="41" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J41">
+        <v>1074097</v>
+      </c>
+    </row>
+    <row r="42" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J42">
+        <v>1127928.75</v>
+      </c>
+    </row>
+    <row r="43" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J43">
+        <v>992706.67499999981</v>
+      </c>
+    </row>
+    <row r="44" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J44">
+        <v>984687.60000000009</v>
+      </c>
+    </row>
+    <row r="45" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J45">
+        <v>790871.1</v>
+      </c>
+    </row>
+    <row r="46" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J46">
+        <v>609201</v>
+      </c>
+    </row>
+    <row r="47" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J47">
+        <v>439324.2</v>
+      </c>
+    </row>
+    <row r="48" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="J48">
+        <v>252538.5</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J49">
+        <v>149010.40000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J50">
+        <v>78117.299999999988</v>
       </c>
     </row>
   </sheetData>
